--- a/testing_results/results_tai30x20.xlsx
+++ b/testing_results/results_tai30x20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2065446318282325</v>
+        <v>0.1902329018800825</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2100237045262101</v>
+        <v>0.2119976894695376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2011035212541774</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2004138383061111</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2059399777514744</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2055744090505904</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2047274825580496</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2164838747809369</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1968431904234723</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2174013012798835</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2120471364399379</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.2249125241519689</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.2119976894695376</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.1555460178418069</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.192477405343558</v>
+        <v>0.1676758707126552</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1861535215407688</v>
+        <v>0.1852223568159731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1833985020204809</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1798687480814993</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1883995716681344</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1897666247881927</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1861125150957585</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.201809801996348</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1831645003370876</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2019732362967315</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1949335991993066</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2026644986591354</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1852223568159731</v>
-      </c>
-      <c r="N3" t="n">
         <v>0.1354321523716237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1743693700437224</v>
+        <v>0.1531071440794392</v>
       </c>
       <c r="B4" t="n">
-        <v>0.172881673350243</v>
+        <v>0.1696401345759078</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1670414582842437</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1670932635075484</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1757753730673861</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1749801382455563</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1678728270993675</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1844093904171679</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1643324286406211</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1879753804431043</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1746188522436514</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1849502765080094</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1696401345759078</v>
-      </c>
-      <c r="N4" t="n">
         <v>0.1365449478496588</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1348059367796808</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1498312309240609</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1131635334785731</v>
       </c>
     </row>
   </sheetData>
